--- a/fhir/core/3.3.0/CodeSystem-episode-of-care-status-dk-supplement.xlsx
+++ b/fhir/core/3.3.0/CodeSystem-episode-of-care-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:51:05+01:00</t>
+    <t>2024-12-11T10:16:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>waitlist</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>onhold</t>
@@ -512,7 +509,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -522,7 +519,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -532,7 +529,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -542,7 +539,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -552,7 +549,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
